--- a/Config/完全匹配.xlsx
+++ b/Config/完全匹配.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -29,7 +29,113 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -44,30 +150,9 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,99 +166,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -187,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,6 +371,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,58 +407,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,153 +436,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,10 +1039,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1069,48 +1062,1836 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>illia</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>1111111</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>avilliaa</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>aMabaDaYaoaoaza.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>艹酱</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>变态</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>aEa7a_aNaiaga2a.png</t>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>艹酱</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>adaCa_aCaZaiaHa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>艹酱</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>aKaMaHapagaZa7a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>艹酱</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>🐜呀嘿</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>艹酱</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>a1aVaQa2apalaya.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>庸医</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>a5aBa@afapahasa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>庸医</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>aja6aAaAaaasa5a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>冲</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>a1afa4a$aVasa0a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>开冲</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>a6aJaBaOa7aZa@a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>晚安安</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>ajaFaIaDaMaLaHa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>傻逼！</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>aOaraWahaLagaba.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>我是大傻逼！</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>agasa2aVataWaZa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>变态</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>aDafasanaSaaaHa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>变态</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>aDaKaSa6adaiama.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>摸鱼</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>aHaDaWa4aJaaasa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>你叫什么</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>aba$alafaPaAaca.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>宝宝</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>aSataZaoaSaZaUa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>早</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>aHaGaqaBa2aiama.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>测试成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>来点色色</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>aUaBa5a%aHaraHa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>来点色色</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>aFaIaRalauajaua.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>牛</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>好厉害</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>正确的</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>axaDaOacajaGaea.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>你寄吧谁啊</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>aYauaBaga4awa6a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>你寄吧谁啊</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>a9aWaDaMaqa8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>好家伙</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>araaaXaAaEa8a8a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>好家伙</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>好强呀</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>好家伙</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>a9aOaVa2a9agaTa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>好家伙</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>a2a_aGa_aFawaxa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>adaraJa@aTaHaLa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>aja6aaaLanasaJa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>aFada9ara0a1aja.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>aXa8awaIa0awaAa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>aTaWaOaEaKaVaoa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>aAa_awaGaYaDada.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>a_ahaJaWanaBaba.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>aJaraKa%a9ahaAa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>深毛老师</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>ahaZaba0a6aKaoa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>你在干嘛</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>aRaNaAa2aEataha.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>打胶</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>ahaLaKaGaYaBa4a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>好累</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>aMayaLaBaEaIaYa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>拜拜</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>是要去哪里呢</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>拜拜</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>awauaVa3acaraKa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>拜拜</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>不许润，回来</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>嘤</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>a1aKa</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>晚安捏</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>aLa9aEaPabaNaNa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>aba1aOauaBahaVa.png</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>可爱捏</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2546647462-832D12B56177D4E2B70ECB10B3F6E550/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>可爱捏</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>yucca跳舞</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>yucca跳舞</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>agaNamaJasaraXa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>yucca跳舞</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>aZana3a_aMaRa@a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2588358168-832D12B56177D4E2B70ECB10B3F6E550/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>可爱捏</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>可爱捏</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>aja7a@aaaTaBaAa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>可爱捏</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>ayaSaBaKaPaHaUa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>可爱捏</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>aua8acaVaUaEaYa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>你这变态，活在世上只会把米吃贵</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>日日</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>@yucca亲亲</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>亲亲</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>亲亲</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>唔…嗯……好吧……啾♡</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>亲亲</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>唔…嗯……好吧……啾♡</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>亲亲</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>aeananaJaka2aba.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>亲亲</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>aNa0a_abajaOava.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>亲亲</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>aiaRadaza4aya9a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>笨蛋</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>aXaAapa5aCaga9a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>笨蛋</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>不是笨蛋</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>我超 原</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>aTaSa6a2a1a1ata.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>考试</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>avaEaAa@a4adaia.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>有事吗？我在听</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>adadaXauaRagaua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>amaSaIaGapa2aTa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>aEaiaBaQa4axaBa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>aBaUaKaqaVataja.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>有事吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>apalaLauataYaJa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>aZaea@a0aTawara.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>aFaGaBa2adaAaXa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>aEa$amaRa$aXaua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>@3552663628 test</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>adaGaTada%a9ara.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>草酱</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>a6a0aNaPa7aRa8a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>草</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>有什么有趣的东西吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>草</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>aqabapazaSava0a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>草</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>aFataAaXafaTa1a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>草</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>aZauaia1akanaJa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2984526316-8956A97B62D4F9F8D57A8A40201482E8/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>？</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>朱子轩</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>aha6aTaba0agaka.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>来点涩图</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>你就少冲点吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>我是莫斯提马的狗</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>aFaNaRaFaaaTaza.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>你是？</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>agawaaawaDa$a$a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>奈奈</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>aTavaLaoaKaGa7a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>奈奈（</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>a8a5aUaWala9a5a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>你是哪个省的</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>aMa$aJaGa_a9aXa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>@猫之教主</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>a7adaha@aQaHaka.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>让我康康</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>a5aYajaMaGaLafa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>a5aSa5a5azadaIa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>莫莫</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>aVaKaOakaOaKaZa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>打个郊县</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>a7aXaba8ataAaaa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>打个郊县</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>axaGaiaUaWaZava.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>我超，原</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>aAava_aoalabaZa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>感恩</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>aua2aUaFa@a3aaa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>理塘丁真</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>aHaVa5aoa2aBaAa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>aDaZauajaZaZaia.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>ata%aAawaqa$aya.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>😠</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>acaiaTaxaEaiaZa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>aMaTatakaCafaua.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2337462804-A0049CF9404FC6BA7E3F3B39FBEC0BB6/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>aWa$adaSavaTaXa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-3060859566-362C0B8792FAA890B607509D5A4BC9BA/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>a7aDatauanaSa8a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2414870446-53CD6F9A6841F6BDB48E639813550AFC/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>aIaTaQa8a8araga.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>好</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>aYaBa$akaoatawa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>a0aDada$a8a7afa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>ataWaVadaEaFaFa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>勾罕见</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>aHa5apaTa5aNa0a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/841411321/2611682242-2335856690-0A65C4F3BCFE2D6F7EE399E8CABBC851/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>aVadaOa7ata0a6a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>来点涩涩</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>aeaFavaLazata2a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>晚安</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>a@araSa4abavaLa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>晚安</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>aXaLalaIa9a4aRa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>晚安</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>adaRaqajafata4a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>晚安</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>aGaxajaZalaCaAa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>关机</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>auakaIapaIaGaDa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>@2730291236 贴贴</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>axaia2aZa%a%aoa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>日日</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>auaua1aEaIaCaea.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>日日</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>a%aZabaxaka7aja.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>日日</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>aLaHaAa</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>功能</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>为什么要发功能呢，发送 帮助 试试吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>功能</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>a5araqata9abasa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>功能</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>功能列表被吞了哦，发送 帮助 试试</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>我不知道</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>aTa7azaxarakapa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>莲莲可爱捏</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>a@aTaaaCaIaqaoa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>莲莲可爱捏</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>aha_a$aHaxaJaua.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>早上好</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>aeaDaHa@aOaRasa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>早上好</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>aKaOaEataia3aRa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>真的吗</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>我也不确定了呢</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>语音测试</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>aVaiaxa$a%a_a2a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>教骂克难攻坚起来了</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>aVaPaBaRaFa0aoa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>dhsrz</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>th/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>dhsrz</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>hdjdhxtz</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>2675475</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>aba%aSagawa_aga.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>你干嘛</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>哎哟</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>制图</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>aRacaha_agayaZa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/2148644887/712656276-2941495780-3D4D1CFB049759D39B686983BFCDA80E/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>添加语音</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>/pic4</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>aqaha9aRaxavawa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>水印领取流程</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>aOa1abaLada8aMa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>罕见</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>aLa@anaHaOaRa1a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>yucca闭嘴</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>aea6aWaZaLaNa7a.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>菜单</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>aca0auahaza3aTa.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>莲莲</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>afaZaHaTazaGa</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>Ciallo～(∠・ω&lt; )⌒☆</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>Ciallo～(∠・ω&lt; )⌒☆</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>润</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>润</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>柚子厨</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>aBaZa@aGama3awa.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>柚子厨</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>你说得对，但是《天使☆騒々 RE-BOOT!》是日本超人气美少女游戏品牌YUZUSOFT开发的第12部美少女冒险游戏。故事发生在一所普通的高中内，你将扮演一位名为「谷风李空」的普通高中生，在突然降临到面前的自称“天使”的女孩「白雪乃爱」的陪伴下，与身边的伙伴们经历各种奇异事件，同时，逐步发掘作为「异世界转世魔王」的真相。​</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>57684884</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>54584884</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>真是丢人草酱</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>是的，他是笨蛋</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>多发点</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>aMatakaiaZaEasa.wav</t>
         </is>
       </c>
     </row>

--- a/Config/完全匹配.xlsx
+++ b/Config/完全匹配.xlsx
@@ -29,8 +29,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -38,7 +37,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -46,6 +60,43 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -66,7 +117,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -75,44 +127,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,7 +143,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,31 +157,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,37 +180,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,145 +294,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,6 +371,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -390,39 +449,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -437,37 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,10 +479,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -491,133 +491,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,1859 +1039,1871 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B152" sqref="A1:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>illia</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>1111111</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>avilliaa</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>aMabaDaYaoaoaza.png</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>艹酱</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>变态</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>艹酱</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>adaCa_aCaZaiaHa.png</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>艹酱</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>aKaMaHapagaZa7a.png</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>艹酱</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>🐜呀嘿</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>艹酱</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>a1aVaQa2apalaya.png</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>庸医</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>a5aBa@afapahasa.png</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>庸医</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>aja6aAaAaaasa5a.png</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>冲</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>a1afa4a$aVasa0a.png</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>开冲</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>a6aJaBaOa7aZa@a.png</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>晚安安</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>ajaFaIaDaMaLaHa.wav</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>傻逼！</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>aOaraWahaLagaba.wav</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>我是大傻逼！</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>agasa2aVataWaZa.wav</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>变态</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>aDafasanaSaaaHa.png</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>变态</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>aDaKaSa6adaiama.png</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>摸鱼</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>aHaDaWa4aJaaasa.png</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>你叫什么</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>aba$alafaPaAaca.wav</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>宝宝</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>aSataZaoaSaZaUa.wav</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>早</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>aHaGaqaBa2aiama.wav</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>测试成功</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>来点色色</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>aUaBa5a%aHaraHa.wav</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>来点色色</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>aFaIaRalauajaua.wav</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>牛</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>好厉害</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>正确的</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>axaDaOacajaGaea.png</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>你寄吧谁啊</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>aYauaBaga4awa6a.png</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>你寄吧谁啊</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>a9aWaDaMaqa8a</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>好家伙</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>araaaXaAaEa8a8a.png</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>好家伙</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>好强呀</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>好家伙</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>a9aOaVa2a9agaTa.png</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>好家伙</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>a2a_aGa_aFawaxa.png</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>adaraJa@aTaHaLa.png</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>aja6aaaLanasaJa.png</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>aFada9ara0a1aja.png</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>aXa8awaIa0awaAa.png</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>aTaWaOaEaKaVaoa.png</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>aAa_awaGaYaDada.png</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>a_ahaJaWanaBaba.png</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>aJaraKa%a9ahaAa.png</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>深毛老师</t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>ahaZaba0a6aKaoa.wav</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>你在干嘛</t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>aRaNaAa2aEataha.wav</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>打胶</t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>ahaLaKaGaYaBa4a.wav</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>好累</t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>aMayaLaBaEaIaYa.wav</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>拜拜</t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>是要去哪里呢</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>拜拜</t>
         </is>
       </c>
-      <c r="B46" s="0" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>awauaVa3acaraKa.png</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>拜拜</t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>不许润，回来</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>嘤</t>
         </is>
       </c>
-      <c r="B48" s="0" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>a1aKa</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>晚安捏</t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>aLa9aEaPabaNaNa.png</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>aba1aOauaBahaVa.png</t>
         </is>
       </c>
-      <c r="B50" s="0" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>可爱捏</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2546647462-832D12B56177D4E2B70ECB10B3F6E550/0?term=2&amp;is_origin=0</t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>可爱捏</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>yucca跳舞</t>
         </is>
       </c>
-      <c r="B52" s="0" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>拒绝</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>yucca跳舞</t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>agaNamaJasaraXa.png</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>yucca跳舞</t>
         </is>
       </c>
-      <c r="B54" s="0" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>aZana3a_aMaRa@a.png</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2588358168-832D12B56177D4E2B70ECB10B3F6E550/0?term=2&amp;is_origin=0</t>
         </is>
       </c>
-      <c r="B55" s="0" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>可爱捏</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>可爱捏</t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>aja7a@aaaTaBaAa.png</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>可爱捏</t>
         </is>
       </c>
-      <c r="B57" s="0" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>ayaSaBaKaPaHaUa.png</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>可爱捏</t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>aua8acaVaUaEaYa.png</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>你这变态，活在世上只会把米吃贵</t>
         </is>
       </c>
-      <c r="B59" s="0" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>日日</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>@yucca亲亲</t>
         </is>
       </c>
-      <c r="B60" s="0" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>亲亲</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>亲亲</t>
         </is>
       </c>
-      <c r="B61" s="0" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>唔…嗯……好吧……啾♡</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>亲亲</t>
         </is>
       </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>唔…嗯……好吧……啾♡</t>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>aeananaJaka2aba.wav</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>亲亲</t>
         </is>
       </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>aeananaJaka2aba.wav</t>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>aNa0a_abajaOava.wav</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>亲亲</t>
         </is>
       </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>aNa0a_abajaOava.wav</t>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>aiaRadaza4aya9a.wav</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="inlineStr">
-        <is>
-          <t>亲亲</t>
-        </is>
-      </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>aiaRadaza4aya9a.wav</t>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>笨蛋</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>aXaAapa5aCaga9a.png</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>笨蛋</t>
         </is>
       </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>aXaAapa5aCaga9a.png</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>不是笨蛋</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="inlineStr">
-        <is>
-          <t>笨蛋</t>
-        </is>
-      </c>
-      <c r="B67" s="0" t="inlineStr">
-        <is>
-          <t>不是笨蛋</t>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>我超 原</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>aTaSa6a2a1a1ata.png</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="inlineStr">
-        <is>
-          <t>我超 原</t>
-        </is>
-      </c>
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>aTaSa6a2a1a1ata.png</t>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>考试</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>avaEaAa@a4adaia.png</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="inlineStr">
-        <is>
-          <t>考试</t>
-        </is>
-      </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>avaEaAa@a4adaia.png</t>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>yucca</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>有事吗？我在听</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>有事吗？我在听</t>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>adadaXauaRagaua.png</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>adadaXauaRagaua.png</t>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>amaSaIaGapa2aTa.png</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>amaSaIaGapa2aTa.png</t>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>aEaiaBaQa4axaBa.png</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>aEaiaBaQa4axaBa.png</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>aBaUaKaqaVataja.png</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>aBaUaKaqaVataja.png</t>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>有事吗？</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>有事吗？</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>apalaLauataYaJa.png</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>apalaLauataYaJa.png</t>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>aZaea@a0aTawara.png</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>aZaea@a0aTawara.png</t>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>aFaGaBa2adaAaXa.png</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>yucca</t>
         </is>
       </c>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>aFaGaBa2adaAaXa.png</t>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>aEa$amaRa$aXaua.png</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="inlineStr">
-        <is>
-          <t>yucca</t>
-        </is>
-      </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>aEa$amaRa$aXaua.png</t>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>@3552663628 test</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adaGaTada%a9ara.png</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="inlineStr">
-        <is>
-          <t>@3552663628 test</t>
-        </is>
-      </c>
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>adaGaTada%a9ara.png</t>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>草酱</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>a6a0aNaPa7aRa8a.png</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="inlineStr">
-        <is>
-          <t>草酱</t>
-        </is>
-      </c>
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>a6a0aNaPa7aRa8a.png</t>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>草</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>有什么有趣的东西吗</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>草</t>
         </is>
       </c>
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>有什么有趣的东西吗</t>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>aqabapazaSava0a.png</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>草</t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>aqabapazaSava0a.png</t>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>aFataAaXafaTa1a.png</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>草</t>
         </is>
       </c>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>aFataAaXafaTa1a.png</t>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>aZauaia1akanaJa.png</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="inlineStr">
-        <is>
-          <t>草</t>
-        </is>
-      </c>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>aZauaia1akanaJa.png</t>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2984526316-8956A97B62D4F9F8D57A8A40201482E8/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>？</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="inlineStr">
-        <is>
-          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2984526316-8956A97B62D4F9F8D57A8A40201482E8/0?term=2&amp;is_origin=0</t>
-        </is>
-      </c>
-      <c r="B86" s="0" t="inlineStr">
-        <is>
-          <t>？</t>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>朱子轩</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>aha6aTaba0agaka.wav</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="inlineStr">
-        <is>
-          <t>朱子轩</t>
-        </is>
-      </c>
-      <c r="B87" s="0" t="inlineStr">
-        <is>
-          <t>aha6aTaba0agaka.wav</t>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>来点涩图</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>你就少冲点吧</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="inlineStr">
-        <is>
-          <t>来点涩图</t>
-        </is>
-      </c>
-      <c r="B88" s="0" t="inlineStr">
-        <is>
-          <t>你就少冲点吧</t>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>我是莫斯提马的狗</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>aFaNaRaFaaaTaza.wav</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="inlineStr">
-        <is>
-          <t>我是莫斯提马的狗</t>
-        </is>
-      </c>
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>aFaNaRaFaaaTaza.wav</t>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>你是？</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>agawaaawaDa$a$a.wav</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="inlineStr">
-        <is>
-          <t>你是？</t>
-        </is>
-      </c>
-      <c r="B90" s="0" t="inlineStr">
-        <is>
-          <t>agawaaawaDa$a$a.wav</t>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>奈奈</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>aTavaLaoaKaGa7a.wav</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="inlineStr">
-        <is>
-          <t>奈奈</t>
-        </is>
-      </c>
-      <c r="B91" s="0" t="inlineStr">
-        <is>
-          <t>aTavaLaoaKaGa7a.wav</t>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>奈奈（</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>a8a5aUaWala9a5a.wav</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="inlineStr">
-        <is>
-          <t>奈奈（</t>
-        </is>
-      </c>
-      <c r="B92" s="0" t="inlineStr">
-        <is>
-          <t>a8a5aUaWala9a5a.wav</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>你是哪个省的</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>aMa$aJaGa_a9aXa.wav</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="inlineStr">
-        <is>
-          <t>你是哪个省的</t>
-        </is>
-      </c>
-      <c r="B93" s="0" t="inlineStr">
-        <is>
-          <t>aMa$aJaGa_a9aXa.wav</t>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>@猫之教主</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>a7adaha@aQaHaka.wav</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="inlineStr">
-        <is>
-          <t>@猫之教主</t>
-        </is>
-      </c>
-      <c r="B94" s="0" t="inlineStr">
-        <is>
-          <t>a7adaha@aQaHaka.wav</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>让我康康</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a5aYajaMaGaLafa.wav</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="inlineStr">
-        <is>
-          <t>让我康康</t>
-        </is>
-      </c>
-      <c r="B95" s="0" t="inlineStr">
-        <is>
-          <t>a5aYajaMaGaLafa.wav</t>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>a5aSa5a5azadaIa.wav</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>a5aSa5a5azadaIa.wav</t>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>莫莫</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>aVaKaOakaOaKaZa.wav</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="inlineStr">
-        <is>
-          <t>莫莫</t>
-        </is>
-      </c>
-      <c r="B97" s="0" t="inlineStr">
-        <is>
-          <t>aVaKaOakaOaKaZa.wav</t>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>打个郊县</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a7aXaba8ataAaaa.wav</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>打个郊县</t>
         </is>
       </c>
-      <c r="B98" s="0" t="inlineStr">
-        <is>
-          <t>a7aXaba8ataAaaa.wav</t>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>axaGaiaUaWaZava.wav</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="inlineStr">
-        <is>
-          <t>打个郊县</t>
-        </is>
-      </c>
-      <c r="B99" s="0" t="inlineStr">
-        <is>
-          <t>axaGaiaUaWaZava.wav</t>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>我超，原</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>aAava_aoalabaZa.wav</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="inlineStr">
-        <is>
-          <t>我超，原</t>
-        </is>
-      </c>
-      <c r="B100" s="0" t="inlineStr">
-        <is>
-          <t>aAava_aoalabaZa.wav</t>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>感恩</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>aua2aUaFa@a3aaa.png</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="inlineStr">
-        <is>
-          <t>感恩</t>
-        </is>
-      </c>
-      <c r="B101" s="0" t="inlineStr">
-        <is>
-          <t>aua2aUaFa@a3aaa.png</t>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>理塘丁真</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>aHaVa5aoa2aBaAa.wav</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="inlineStr">
-        <is>
-          <t>理塘丁真</t>
-        </is>
-      </c>
-      <c r="B102" s="0" t="inlineStr">
-        <is>
-          <t>aHaVa5aoa2aBaAa.wav</t>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>aDaZauajaZaZaia.wav</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
-      <c r="B103" s="0" t="inlineStr">
-        <is>
-          <t>aDaZauajaZaZaia.wav</t>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ata%aAawaqa$aya.wav</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B104" s="0" t="inlineStr">
-        <is>
-          <t>ata%aAawaqa$aya.wav</t>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>😠</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>acaiaTaxaEaiaZa.wav</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="inlineStr">
-        <is>
-          <t>😠</t>
-        </is>
-      </c>
-      <c r="B105" s="0" t="inlineStr">
-        <is>
-          <t>acaiaTaxaEaiaZa.wav</t>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>aMaTatakaCafaua.png</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B106" s="0" t="inlineStr">
-        <is>
-          <t>aMaTatakaCafaua.png</t>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2337462804-A0049CF9404FC6BA7E3F3B39FBEC0BB6/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>aWa$adaSavaTaXa.png</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0" t="inlineStr">
-        <is>
-          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2337462804-A0049CF9404FC6BA7E3F3B39FBEC0BB6/0?term=2&amp;is_origin=0</t>
-        </is>
-      </c>
-      <c r="B107" s="0" t="inlineStr">
-        <is>
-          <t>aWa$adaSavaTaXa.png</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-3060859566-362C0B8792FAA890B607509D5A4BC9BA/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>a7aDatauanaSa8a.png</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0" t="inlineStr">
-        <is>
-          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-3060859566-362C0B8792FAA890B607509D5A4BC9BA/0?term=2&amp;is_origin=0</t>
-        </is>
-      </c>
-      <c r="B108" s="0" t="inlineStr">
-        <is>
-          <t>a7aDatauanaSa8a.png</t>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2414870446-53CD6F9A6841F6BDB48E639813550AFC/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>aIaTaQa8a8araga.png</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="inlineStr">
-        <is>
-          <t>http://gchat.qpic.cn/gchatpic_new/1840094972/732096208-2414870446-53CD6F9A6841F6BDB48E639813550AFC/0?term=2&amp;is_origin=0</t>
-        </is>
-      </c>
-      <c r="B109" s="0" t="inlineStr">
-        <is>
-          <t>aIaTaQa8a8araga.png</t>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>好</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>aYaBa$akaoatawa.png</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="inlineStr">
-        <is>
-          <t>好</t>
-        </is>
-      </c>
-      <c r="B110" s="0" t="inlineStr">
-        <is>
-          <t>aYaBa$akaoatawa.png</t>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>a0aDada$a8a7afa.wav</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B111" s="0" t="inlineStr">
-        <is>
-          <t>a0aDada$a8a7afa.wav</t>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ataWaVadaEaFaFa.wav</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="B112" s="0" t="inlineStr">
-        <is>
-          <t>ataWaVadaEaFaFa.wav</t>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>勾罕见</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>aHa5apaTa5aNa0a.wav</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0" t="inlineStr">
-        <is>
-          <t>勾罕见</t>
-        </is>
-      </c>
-      <c r="B113" s="0" t="inlineStr">
-        <is>
-          <t>aHa5apaTa5aNa0a.wav</t>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/841411321/2611682242-2335856690-0A65C4F3BCFE2D6F7EE399E8CABBC851/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>aVadaOa7ata0a6a.wav</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="inlineStr">
-        <is>
-          <t>http://gchat.qpic.cn/gchatpic_new/841411321/2611682242-2335856690-0A65C4F3BCFE2D6F7EE399E8CABBC851/0?term=2&amp;is_origin=0</t>
-        </is>
-      </c>
-      <c r="B114" s="0" t="inlineStr">
-        <is>
-          <t>aVadaOa7ata0a6a.wav</t>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>来点涩涩</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>aeaFavaLazata2a.wav</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="inlineStr">
-        <is>
-          <t>来点涩涩</t>
-        </is>
-      </c>
-      <c r="B115" s="0" t="inlineStr">
-        <is>
-          <t>aeaFavaLazata2a.wav</t>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>晚安</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>a@araSa4abavaLa.wav</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0" t="inlineStr">
+      <c r="A116" t="inlineStr">
         <is>
           <t>晚安</t>
         </is>
       </c>
-      <c r="B116" s="0" t="inlineStr">
-        <is>
-          <t>a@araSa4abavaLa.wav</t>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>aXaLalaIa9a4aRa.png</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0" t="inlineStr">
+      <c r="A117" t="inlineStr">
         <is>
           <t>晚安</t>
         </is>
       </c>
-      <c r="B117" s="0" t="inlineStr">
-        <is>
-          <t>aXaLalaIa9a4aRa.png</t>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>adaRaqajafata4a.wav</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="inlineStr">
+      <c r="A118" t="inlineStr">
         <is>
           <t>晚安</t>
         </is>
       </c>
-      <c r="B118" s="0" t="inlineStr">
-        <is>
-          <t>adaRaqajafata4a.wav</t>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>aGaxajaZalaCaAa.wav</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0" t="inlineStr">
-        <is>
-          <t>晚安</t>
-        </is>
-      </c>
-      <c r="B119" s="0" t="inlineStr">
-        <is>
-          <t>aGaxajaZalaCaAa.wav</t>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>关机</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>auakaIapaIaGaDa.png</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0" t="inlineStr">
-        <is>
-          <t>关机</t>
-        </is>
-      </c>
-      <c r="B120" s="0" t="inlineStr">
-        <is>
-          <t>auakaIapaIaGaDa.png</t>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>@2730291236 贴贴</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>axaia2aZa%a%aoa.png</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0" t="inlineStr">
-        <is>
-          <t>@2730291236 贴贴</t>
-        </is>
-      </c>
-      <c r="B121" s="0" t="inlineStr">
-        <is>
-          <t>axaia2aZa%a%aoa.png</t>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>日日</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>auaua1aEaIaCaea.png</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0" t="inlineStr">
+      <c r="A122" t="inlineStr">
         <is>
           <t>日日</t>
         </is>
       </c>
-      <c r="B122" s="0" t="inlineStr">
-        <is>
-          <t>auaua1aEaIaCaea.png</t>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>a%aZabaxaka7aja.png</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0" t="inlineStr">
+      <c r="A123" t="inlineStr">
         <is>
           <t>日日</t>
         </is>
       </c>
-      <c r="B123" s="0" t="inlineStr">
-        <is>
-          <t>a%aZabaxaka7aja.png</t>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>aLaHaAa</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="inlineStr">
-        <is>
-          <t>日日</t>
-        </is>
-      </c>
-      <c r="B124" s="0" t="inlineStr">
-        <is>
-          <t>aLaHaAa</t>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>功能</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>为什么要发功能呢，发送 帮助 试试吧</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="inlineStr">
+      <c r="A125" t="inlineStr">
         <is>
           <t>功能</t>
         </is>
       </c>
-      <c r="B125" s="0" t="inlineStr">
-        <is>
-          <t>为什么要发功能呢，发送 帮助 试试吧</t>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>a5araqata9abasa.png</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0" t="inlineStr">
+      <c r="A126" t="inlineStr">
         <is>
           <t>功能</t>
         </is>
       </c>
-      <c r="B126" s="0" t="inlineStr">
-        <is>
-          <t>a5araqata9abasa.png</t>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>功能列表被吞了哦，发送 帮助 试试</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="inlineStr">
-        <is>
-          <t>功能</t>
-        </is>
-      </c>
-      <c r="B127" s="0" t="inlineStr">
-        <is>
-          <t>功能列表被吞了哦，发送 帮助 试试</t>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>我不知道</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>aTa7azaxarakapa.png</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="inlineStr">
-        <is>
-          <t>我不知道</t>
-        </is>
-      </c>
-      <c r="B128" s="0" t="inlineStr">
-        <is>
-          <t>aTa7azaxarakapa.png</t>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>莲莲可爱捏</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>a@aTaaaCaIaqaoa.png</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0" t="inlineStr">
+      <c r="A129" t="inlineStr">
         <is>
           <t>莲莲可爱捏</t>
         </is>
       </c>
-      <c r="B129" s="0" t="inlineStr">
-        <is>
-          <t>a@aTaaaCaIaqaoa.png</t>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>aha_a$aHaxaJaua.wav</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="inlineStr">
-        <is>
-          <t>莲莲可爱捏</t>
-        </is>
-      </c>
-      <c r="B130" s="0" t="inlineStr">
-        <is>
-          <t>aha_a$aHaxaJaua.wav</t>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>早上好</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>aeaDaHa@aOaRasa.png</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0" t="inlineStr">
+      <c r="A131" t="inlineStr">
         <is>
           <t>早上好</t>
         </is>
       </c>
-      <c r="B131" s="0" t="inlineStr">
-        <is>
-          <t>aeaDaHa@aOaRasa.png</t>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>aKaOaEataia3aRa.wav</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0" t="inlineStr">
-        <is>
-          <t>早上好</t>
-        </is>
-      </c>
-      <c r="B132" s="0" t="inlineStr">
-        <is>
-          <t>aKaOaEataia3aRa.wav</t>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>真的吗</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>我也不确定了呢</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0" t="inlineStr">
-        <is>
-          <t>真的吗</t>
-        </is>
-      </c>
-      <c r="B133" s="0" t="inlineStr">
-        <is>
-          <t>我也不确定了呢</t>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>语音测试</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>aVaiaxa$a%a_a2a.wav</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0" t="inlineStr">
-        <is>
-          <t>语音测试</t>
-        </is>
-      </c>
-      <c r="B134" s="0" t="inlineStr">
-        <is>
-          <t>aVaiaxa$a%a_a2a.wav</t>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>教骂克难攻坚起来了</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>aVaPaBaRaFa0aoa.png</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="0" t="inlineStr">
-        <is>
-          <t>教骂克难攻坚起来了</t>
-        </is>
-      </c>
-      <c r="B135" s="0" t="inlineStr">
-        <is>
-          <t>aVaPaBaRaFa0aoa.png</t>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>dhsrz</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>th/h</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0" t="inlineStr">
+      <c r="A136" t="inlineStr">
         <is>
           <t>dhsrz</t>
         </is>
       </c>
-      <c r="B136" s="0" t="inlineStr">
-        <is>
-          <t>th/h</t>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>hdjdhxtz</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="0" t="inlineStr">
-        <is>
-          <t>dhsrz</t>
-        </is>
-      </c>
-      <c r="B137" s="0" t="inlineStr">
-        <is>
-          <t>hdjdhxtz</t>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2675475</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>aba%aSagawa_aga.wav</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0" t="inlineStr">
-        <is>
-          <t>2675475</t>
-        </is>
-      </c>
-      <c r="B138" s="0" t="inlineStr">
-        <is>
-          <t>aba%aSagawa_aga.wav</t>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>你干嘛</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>哎哟</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0" t="inlineStr">
-        <is>
-          <t>你干嘛</t>
-        </is>
-      </c>
-      <c r="B139" s="0" t="inlineStr">
-        <is>
-          <t>哎哟</t>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>制图</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>aRacaha_agayaZa.png</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0" t="inlineStr">
-        <is>
-          <t>制图</t>
-        </is>
-      </c>
-      <c r="B140" s="0" t="inlineStr">
-        <is>
-          <t>aRacaha_agayaZa.png</t>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>http://gchat.qpic.cn/gchatpic_new/2148644887/712656276-2941495780-3D4D1CFB049759D39B686983BFCDA80E/0?term=2&amp;is_origin=0</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>添加语音</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="0" t="inlineStr">
-        <is>
-          <t>http://gchat.qpic.cn/gchatpic_new/2148644887/712656276-2941495780-3D4D1CFB049759D39B686983BFCDA80E/0?term=2&amp;is_origin=0</t>
-        </is>
-      </c>
-      <c r="B141" s="0" t="inlineStr">
-        <is>
-          <t>添加语音</t>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>/pic4</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>aqaha9aRaxavawa.wav</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0" t="inlineStr">
-        <is>
-          <t>/pic4</t>
-        </is>
-      </c>
-      <c r="B142" s="0" t="inlineStr">
-        <is>
-          <t>aqaha9aRaxavawa.wav</t>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>水印领取流程</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>aOa1abaLada8aMa.wav</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0" t="inlineStr">
-        <is>
-          <t>水印领取流程</t>
-        </is>
-      </c>
-      <c r="B143" s="0" t="inlineStr">
-        <is>
-          <t>aOa1abaLada8aMa.wav</t>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>罕见</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>aLa@anaHaOaRa1a.png</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0" t="inlineStr">
-        <is>
-          <t>罕见</t>
-        </is>
-      </c>
-      <c r="B144" s="0" t="inlineStr">
-        <is>
-          <t>aLa@anaHaOaRa1a.png</t>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>yucca闭嘴</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>aea6aWaZaLaNa7a.wav</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="0" t="inlineStr">
-        <is>
-          <t>yucca闭嘴</t>
-        </is>
-      </c>
-      <c r="B145" s="0" t="inlineStr">
-        <is>
-          <t>aea6aWaZaLaNa7a.wav</t>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>菜单</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>aca0auahaza3aTa.wav</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0" t="inlineStr">
-        <is>
-          <t>菜单</t>
-        </is>
-      </c>
-      <c r="B146" s="0" t="inlineStr">
-        <is>
-          <t>aca0auahaza3aTa.wav</t>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>莲莲</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>afaZaHaTazaGa</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="0" t="inlineStr">
-        <is>
-          <t>莲莲</t>
-        </is>
-      </c>
-      <c r="B147" s="0" t="inlineStr">
-        <is>
-          <t>afaZaHaTazaGa</t>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Ciallo～(∠・ω&lt; )⌒☆</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ciallo～(∠・ω&lt; )⌒☆</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0" t="inlineStr">
-        <is>
-          <t>Ciallo～(∠・ω&lt; )⌒☆</t>
-        </is>
-      </c>
-      <c r="B148" s="0" t="inlineStr">
-        <is>
-          <t>Ciallo～(∠・ω&lt; )⌒☆</t>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>润</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>润</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="0" t="inlineStr">
-        <is>
-          <t>润</t>
-        </is>
-      </c>
-      <c r="B149" s="0" t="inlineStr">
-        <is>
-          <t>润</t>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>柚子厨</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>aBaZa@aGama3awa.png</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="0" t="inlineStr">
+      <c r="A150" t="inlineStr">
         <is>
           <t>柚子厨</t>
         </is>
       </c>
-      <c r="B150" s="0" t="inlineStr">
-        <is>
-          <t>aBaZa@aGama3awa.png</t>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>你说得对，但是《天使☆騒々 RE-BOOT!》是日本超人气美少女游戏品牌YUZUSOFT开发的第12部美少女冒险游戏。故事发生在一所普通的高中内，你将扮演一位名为「谷风李空」的普通高中生，在突然降临到面前的自称“天使”的女孩「白雪乃爱」的陪伴下，与身边的伙伴们经历各种奇异事件，同时，逐步发掘作为「异世界转世魔王」的真相。​</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0" t="inlineStr">
-        <is>
-          <t>柚子厨</t>
-        </is>
-      </c>
-      <c r="B151" s="0" t="inlineStr">
-        <is>
-          <t>你说得对，但是《天使☆騒々 RE-BOOT!》是日本超人气美少女游戏品牌YUZUSOFT开发的第12部美少女冒险游戏。故事发生在一所普通的高中内，你将扮演一位名为「谷风李空」的普通高中生，在突然降临到面前的自称“天使”的女孩「白雪乃爱」的陪伴下，与身边的伙伴们经历各种奇异事件，同时，逐步发掘作为「异世界转世魔王」的真相。​</t>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>57684884</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>54584884</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="0" t="inlineStr">
-        <is>
-          <t>57684884</t>
-        </is>
-      </c>
-      <c r="B152" s="0" t="inlineStr">
-        <is>
-          <t>54584884</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>真是丢人草酱</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>是的，他是笨蛋</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="0" t="inlineStr">
-        <is>
-          <t>真是丢人草酱</t>
-        </is>
-      </c>
-      <c r="B153" s="0" t="inlineStr">
-        <is>
-          <t>是的，他是笨蛋</t>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>多发点</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>aMatakaiaZaEasa.wav</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>多发点</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>aMatakaiaZaEasa.wav</t>
+          <t>aYaeaVaraOada6a.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>哈哈</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>你是笨蛋吗</t>
         </is>
       </c>
     </row>
